--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BKCrusader\Desktop\Desktop\Github\DouDiZhuAI-Capstone\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C284F9-EB9D-4103-A788-AEBE33536BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="7068" yWindow="5196" windowWidth="15420" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,11 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +67,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,50 +108,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CB7777D0-A0B5-4927-B76A-4A641E0899AA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -141,10 +185,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -182,71 +226,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,7 +318,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -297,11 +341,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -310,13 +354,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -326,7 +370,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -335,7 +379,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -344,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,10 +396,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -420,43 +464,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="2.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -469,7 +515,6 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,278 +528,324 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>137600</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
-        <v>0.0039</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
       <c r="F3" s="1">
         <v>137600</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1036800</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.0145</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="5">
+        <v>1.4500000000000001E-2</v>
+      </c>
       <c r="F4" s="1">
         <v>1036800</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2089600</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.135</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.0171</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.5452</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="B5" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.54520000000000002</v>
+      </c>
       <c r="F5" s="1">
         <v>2089600</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4208000</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.5628</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.0943</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.8957</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="B6" s="5">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.89570000000000005</v>
+      </c>
       <c r="F6" s="1">
         <v>4208000</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6326400</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.5819</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.0978</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.9156</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="B7" s="5">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.91559999999999997</v>
+      </c>
       <c r="F7" s="1">
         <v>6326400</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8441600</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.5471</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.0796</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.9081</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="B8" s="5">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.90810000000000002</v>
+      </c>
       <c r="F8" s="1">
         <v>8441600</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10556800</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.5596</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.0886</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.924</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="B9" s="5">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.92400000000000004</v>
+      </c>
       <c r="F9" s="1">
         <v>10556800</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12675200</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.5531</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.0774</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.923</v>
-      </c>
-      <c r="E10" s="5"/>
+      <c r="B10" s="5">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.92300000000000004</v>
+      </c>
       <c r="F10" s="1">
         <v>12675200</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14790400</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.5648</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.0898</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.9232</v>
-      </c>
-      <c r="E11" s="5"/>
+      <c r="B11" s="5">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.92320000000000002</v>
+      </c>
       <c r="F11" s="1">
         <v>14790400</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16908800</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.578</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.0936</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.9285</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="B12" s="5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.92849999999999999</v>
+      </c>
       <c r="F12" s="1">
         <v>16908800</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>19017600</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.5694</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.0919</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.9241</v>
-      </c>
-      <c r="E13" s="5"/>
+      <c r="B13" s="5">
+        <v>0.56940000000000002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.92410000000000003</v>
+      </c>
       <c r="F13" s="1">
         <v>19017600</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20800000</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.578</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.0972</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.9252</v>
-      </c>
-      <c r="E14" s="5"/>
+      <c r="B14" s="5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.92520000000000002</v>
+      </c>
       <c r="F14" s="1">
         <v>20800000</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>22524800</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.5854</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="5">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.1018</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.925</v>
-      </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5">
+        <v>0.92500000000000004</v>
+      </c>
       <c r="F15" s="1">
         <v>22524800</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>27110400</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.64829999999999999</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.1216</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>31353600</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>35596800</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.1285</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.93879999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>46214400</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.93620000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -762,5 +853,6 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BKCrusader\Desktop\Desktop\Github\DouDiZhuAI-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C284F9-EB9D-4103-A788-AEBE33536BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA90C3-5E2B-4BF6-9544-E45E9CDE6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7068" yWindow="5196" windowWidth="15420" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>Winning Percentage As LandLod(10000 Games)</t>
-  </si>
-  <si>
-    <t>Winning Percentage As Farmers(10000 Games)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>OurAI After</t>
   </si>
@@ -38,6 +32,24 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games) ADP LR:0.001</t>
+  </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games) WP LR:0.0001</t>
+  </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games) ADP LR:0.01</t>
+  </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games) WP LR:0.001</t>
+  </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games) WP LR:0.01</t>
+  </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games) ADP LR:0.0001</t>
   </si>
 </sst>
 </file>
@@ -108,11 +120,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,12 +136,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -138,34 +145,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{CB7777D0-A0B5-4927-B76A-4A641E0899AA}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,389 +473,782 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+    <row r="1" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="9" t="s">
-        <v>1</v>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>137600</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F3" s="1">
-        <v>137600</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1036800</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="F4" s="1">
-        <v>1036800</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2089600</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <v>0.13500000000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="12">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>0.54520000000000002</v>
       </c>
-      <c r="F5" s="1">
-        <v>2089600</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4208000</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>0.56279999999999997</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12">
         <v>0.89570000000000005</v>
       </c>
-      <c r="F6" s="1">
-        <v>4208000</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6326400</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="12">
         <v>0.58189999999999997</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="12">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12">
         <v>0.91559999999999997</v>
       </c>
-      <c r="F7" s="1">
-        <v>6326400</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8441600</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="12">
         <v>0.54710000000000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="12">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="12">
         <v>0.90810000000000002</v>
       </c>
-      <c r="F8" s="1">
-        <v>8441600</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10556800</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="12">
         <v>0.55959999999999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="12">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <v>0.92400000000000004</v>
       </c>
-      <c r="F9" s="1">
-        <v>10556800</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12675200</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="12">
         <v>0.55310000000000004</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="12">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="12">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F10" s="1">
-        <v>12675200</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14790400</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="12">
         <v>0.56479999999999997</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="12">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="12">
         <v>0.92320000000000002</v>
       </c>
-      <c r="F11" s="1">
-        <v>14790400</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16908800</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>0.57799999999999996</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="12">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="12">
         <v>0.92849999999999999</v>
       </c>
-      <c r="F12" s="1">
-        <v>16908800</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>19017600</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="12">
         <v>0.56940000000000002</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="12">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <v>0.92410000000000003</v>
       </c>
-      <c r="F13" s="1">
-        <v>19017600</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20800000</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <v>0.57799999999999996</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>0.92520000000000002</v>
       </c>
-      <c r="F14" s="1">
-        <v>20800000</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>22524800</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="12">
         <v>0.58540000000000003</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>0.1018</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>0.92500000000000004</v>
       </c>
-      <c r="F15" s="1">
-        <v>22524800</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="F15" s="1"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>27110400</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>0.64829999999999999</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>0.1216</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>0.94020000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>31353600</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>0.66620000000000001</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>0.13619999999999999</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>0.94020000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="F17" s="9"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>35596800</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>0.65780000000000005</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>0.1285</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>0.93879999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>46214400</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>0.65700000000000003</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>0.13220000000000001</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>0.93620000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="F23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="K23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="F25" s="1">
+        <v>979200</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="F26" s="1">
+        <v>5196800</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="F27" s="1">
+        <v>10985600</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12">
+        <v>0.1081</v>
+      </c>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="F28" s="1">
+        <v>14121600</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="K28" s="1">
+        <v>14051200</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="M28" s="12">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0.69079999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="F29" s="8">
+        <v>20422400</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="F30" s="1">
+        <v>25676800</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12">
+        <v>0.1095</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="9">
+        <v>30931200</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="F33" s="9">
+        <v>40284800</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="F35" s="9">
+        <v>50035200</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0.6109</v>
+      </c>
+      <c r="H35" s="13">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="K35" s="1">
+        <v>50035200</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.1885</v>
+      </c>
+      <c r="M35" s="12">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0.69159999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BKCrusader\Desktop\Desktop\Github\DouDiZhuAI-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA90C3-5E2B-4BF6-9544-E45E9CDE6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B64C9-B036-4CF6-BE40-FBD6924C47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>OurAI After</t>
   </si>
@@ -51,6 +51,12 @@
   <si>
     <t>Winning Percentage As LandLod(10000 Games) ADP LR:0.0001</t>
   </si>
+  <si>
+    <t>Winning Percentage As LandLod(10000 Games)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +101,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,18 +167,22 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +490,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,28 +510,34 @@
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="10" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="R1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,403 +574,449 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>137600</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1036800</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="R4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.9587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2089600</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>0.13500000000000001</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>0.54520000000000002</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="R5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="10">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="T5" s="10">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4208000</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>0.56279999999999997</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>0.89570000000000005</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6326400</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>0.58189999999999997</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.91559999999999997</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8441600</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>0.54710000000000003</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>0.90810000000000002</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10556800</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>0.55959999999999999</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>0.92400000000000004</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12675200</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>0.55310000000000004</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>0.92300000000000004</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14790400</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>0.56479999999999997</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>0.92320000000000002</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16908800</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>0.57799999999999996</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>9.3600000000000003E-2</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>0.92849999999999999</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>19017600</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>0.56940000000000002</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>0.92410000000000003</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20800000</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>0.57799999999999996</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>0.92520000000000002</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>22524800</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>0.58540000000000003</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>0.1018</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>0.92500000000000004</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>27110400</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>0.64829999999999999</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>0.1216</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>0.94020000000000004</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>31353600</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>0.66620000000000001</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>0.13619999999999999</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>0.94020000000000004</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>35596800</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>0.65780000000000005</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="11">
         <v>0.1285</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>0.93879999999999997</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>46214400</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>0.65700000000000003</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>0.13220000000000001</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>0.93620000000000003</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="F23" s="10" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="F23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="K23" s="10" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="K23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -989,260 +1058,269 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="F25" s="1">
         <v>979200</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <v>0</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="F26" s="1">
         <v>5196800</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="10"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="F27" s="1">
         <v>10985600</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>0.1081</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="F28" s="1">
         <v>14121600</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <v>0.12620000000000001</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="10"/>
       <c r="K28" s="1">
         <v>14051200</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="10">
         <v>0.18820000000000001</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="10">
         <v>6.93E-2</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="10">
         <v>0.69079999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="F29" s="8">
         <v>20422400</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
         <v>0.11650000000000001</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="10"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="F30" s="1">
         <v>25676800</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <v>0.1095</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="F31" s="9">
         <v>30931200</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="10"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="F33" s="9">
         <v>40284800</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="I34" s="13"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="I34" s="11"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="1">
+        <v>56640000</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="C35" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.9274</v>
+      </c>
       <c r="F35" s="9">
         <v>50035200</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <v>0.6109</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="11">
         <v>0.92030000000000001</v>
       </c>
       <c r="K35" s="1">
         <v>50035200</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="10">
         <v>0.1885</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="10">
         <v>6.93E-2</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="10">
         <v>0.69159999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="K23:N23"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BKCrusader\Desktop\Desktop\Github\DouDiZhuAI-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B64C9-B036-4CF6-BE40-FBD6924C47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD287D-0B00-45C8-A23F-CECD5A758293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,16 +173,15 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +489,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,31 +510,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="K1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="R1" s="12" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="R1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -608,7 +607,7 @@
       <c r="R3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="10">
@@ -645,7 +644,7 @@
       <c r="S4" s="10">
         <v>0.76800000000000002</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="U4" s="10">
@@ -682,7 +681,7 @@
       <c r="T5" s="10">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -707,7 +706,6 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -995,82 +993,100 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>100400000</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.97540000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>165280000</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.9879</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="F23" s="12" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="F24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="K23" s="12" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="F25" s="1">
-        <v>979200</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1078,13 +1094,11 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="F26" s="1">
-        <v>5196800</v>
-      </c>
-      <c r="G26" s="10"/>
+        <v>979200</v>
+      </c>
       <c r="H26" s="10">
-        <v>9.5399999999999999E-2</v>
-      </c>
-      <c r="I26" s="10"/>
+        <v>0</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1096,13 +1110,17 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="F27" s="1">
-        <v>10985600</v>
+        <v>5196800</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
-        <v>0.1081</v>
+        <v>9.5399999999999999E-2</v>
       </c>
       <c r="I27" s="10"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -1110,55 +1128,51 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="F28" s="1">
-        <v>14121600</v>
+        <v>10985600</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
-        <v>0.12620000000000001</v>
+        <v>0.1081</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="K28" s="1">
-        <v>14051200</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0.18820000000000001</v>
-      </c>
-      <c r="M28" s="10">
-        <v>6.93E-2</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0.69079999999999997</v>
-      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="F29" s="8">
-        <v>20422400</v>
+      <c r="F29" s="1">
+        <v>14121600</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10">
-        <v>0.11650000000000001</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="I29" s="10"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="K29" s="1">
+        <v>14051200</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="M29" s="10">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.69079999999999997</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="F30" s="1">
-        <v>25676800</v>
+      <c r="F30" s="8">
+        <v>20422400</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10">
-        <v>0.1095</v>
+        <v>0.11650000000000001</v>
       </c>
       <c r="I30" s="10"/>
       <c r="K30" s="1"/>
@@ -1171,12 +1185,12 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="F31" s="9">
-        <v>30931200</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>7.5700000000000003E-2</v>
+      <c r="F31" s="1">
+        <v>25676800</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <v>0.1095</v>
       </c>
       <c r="I31" s="10"/>
       <c r="K31" s="1"/>
@@ -1189,6 +1203,13 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
+      <c r="F32" s="9">
+        <v>30931200</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
+        <v>7.5700000000000003E-2</v>
+      </c>
       <c r="I32" s="10"/>
       <c r="K32" s="1"/>
       <c r="L32" s="10"/>
@@ -1200,103 +1221,112 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="F33" s="9">
-        <v>40284800</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
-        <v>9.4899999999999998E-2</v>
-      </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
+      <c r="F34" s="9">
+        <v>40284800</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11">
+        <v>9.4899999999999998E-2</v>
+      </c>
       <c r="I34" s="11"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>56640000</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <v>0.60870000000000002</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C36" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>0.9274</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>50035200</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>0.6109</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H36" s="11">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I36" s="11">
         <v>0.92030000000000001</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K36" s="1">
         <v>50035200</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L36" s="10">
         <v>0.1885</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M36" s="10">
         <v>6.93E-2</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N36" s="10">
         <v>0.69159999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="1">
+        <v>100035200</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="C37" s="10">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.88849999999999996</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
@@ -1318,15 +1348,25 @@
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
     </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="K24:N24"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BKCrusader\Desktop\Desktop\Github\DouDiZhuAI-Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDD287D-0B00-45C8-A23F-CECD5A758293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDE7269-46E5-4BD5-966A-37CEE5DECD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>OurAI After</t>
   </si>
@@ -46,9 +59,6 @@
     <t>Winning Percentage As LandLod(10000 Games) WP LR:0.001</t>
   </si>
   <si>
-    <t>Winning Percentage As LandLod(10000 Games) WP LR:0.01</t>
-  </si>
-  <si>
     <t>Winning Percentage As LandLod(10000 Games) ADP LR:0.0001</t>
   </si>
   <si>
@@ -56,6 +66,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
 </sst>
 </file>
@@ -138,7 +151,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,11 +189,17 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -199,6 +218,1895 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Winning Percentage As LandLod(10000 Games) LR:0.0001</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLCard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76822999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80269999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82689999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86329999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.86419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.86539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.86719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.86119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86719999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E7E-4FCE-ACDB-0805688E899A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53859999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5706</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59867000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59630000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60270000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E7E-4FCE-ACDB-0805688E899A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11500000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12500000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14500000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15500000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95220000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9788</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6E7E-4FCE-ACDB-0805688E899A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000040-6E7E-4FCE-ACDB-0805688E899A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="575461727"/>
+        <c:axId val="575457151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="575461727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Games</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575457151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575457151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Winning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Percentage</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575461727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53CF07D8-249F-4500-357D-B2B2E332A45A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,54 +2397,53 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:22" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="K1" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="R1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-    </row>
-    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="S1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,43 +2456,41 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>137600</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -596,30 +2501,36 @@
       <c r="D3" s="10">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="R3" s="2" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="10">
+      <c r="T3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="10">
         <v>0.14430000000000001</v>
       </c>
-      <c r="U3" s="10">
+      <c r="V3" s="10">
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1036800</v>
+        <v>500000</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -630,745 +2541,1076 @@
       <c r="D4" s="10">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="R4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0.9587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="10"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2089600</v>
+        <v>1000000</v>
       </c>
       <c r="B5" s="10">
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
-        <v>1.7100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="10">
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="10"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="R5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="10">
-        <v>4.7399999999999998E-2</v>
+      <c r="O5" s="10"/>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="T5" s="10">
-        <v>7.1000000000000004E-3</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4208000</v>
+        <v>10</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0.9587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>A5+$A$4</f>
+        <v>1500000</v>
       </c>
       <c r="B6" s="10">
-        <v>0.56279999999999997</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="C6" s="10">
-        <v>9.4299999999999995E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="D6" s="10">
-        <v>0.89570000000000005</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="10"/>
+        <v>0.3024</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6326400</v>
+      <c r="O6" s="10"/>
+      <c r="S6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="10">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="U6" s="10">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f t="shared" ref="A7:A35" si="0">A6+$A$4</f>
+        <v>2000000</v>
       </c>
       <c r="B7" s="10">
-        <v>0.58189999999999997</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C7" s="10">
-        <v>9.7799999999999998E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="D7" s="10">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8441600</v>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
       </c>
       <c r="B8" s="10">
-        <v>0.54710000000000003</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="C8" s="10">
-        <v>7.9600000000000004E-2</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="D8" s="10">
-        <v>0.90810000000000002</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="10"/>
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>10556800</v>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="B9" s="10">
-        <v>0.55959999999999999</v>
+        <v>0.50449999999999995</v>
       </c>
       <c r="C9" s="10">
-        <v>8.8599999999999998E-2</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="D9" s="10">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="10"/>
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>12675200</v>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
       </c>
       <c r="B10" s="10">
-        <v>0.55310000000000004</v>
+        <v>0.76822999999999997</v>
       </c>
       <c r="C10" s="10">
-        <v>7.7399999999999997E-2</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="D10" s="10">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="10"/>
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>14790400</v>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
       </c>
       <c r="B11" s="10">
-        <v>0.56479999999999997</v>
+        <v>0.80269999999999997</v>
       </c>
       <c r="C11" s="10">
-        <v>8.9800000000000005E-2</v>
+        <v>0.53859999999999997</v>
       </c>
       <c r="D11" s="10">
-        <v>0.92320000000000002</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
+        <v>0.9456</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>16908800</v>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>4500000</v>
       </c>
       <c r="B12" s="10">
-        <v>0.57799999999999996</v>
+        <v>0.81559999999999999</v>
       </c>
       <c r="C12" s="10">
-        <v>9.3600000000000003E-2</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="D12" s="10">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="10"/>
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>19017600</v>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
       </c>
       <c r="B13" s="10">
-        <v>0.56940000000000002</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="C13" s="10">
-        <v>9.1899999999999996E-2</v>
+        <v>0.55220000000000002</v>
       </c>
       <c r="D13" s="10">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="10"/>
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>20800000</v>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>5500000</v>
       </c>
       <c r="B14" s="10">
-        <v>0.57799999999999996</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="C14" s="10">
-        <v>9.7199999999999995E-2</v>
+        <v>0.56010000000000004</v>
       </c>
       <c r="D14" s="10">
-        <v>0.92520000000000002</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="10"/>
+        <v>0.9577</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>22524800</v>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>6000000</v>
       </c>
       <c r="B15" s="10">
-        <v>0.58540000000000003</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="C15" s="10">
-        <v>0.1018</v>
+        <v>0.5625</v>
       </c>
       <c r="D15" s="10">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="10"/>
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>27110400</v>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
       </c>
       <c r="B16" s="10">
-        <v>0.64829999999999999</v>
+        <v>0.84889999999999999</v>
       </c>
       <c r="C16" s="10">
-        <v>0.1216</v>
+        <v>0.56369999999999998</v>
       </c>
       <c r="D16" s="10">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>31353600</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0.66620000000000001</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.13619999999999999</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>35596800</v>
-      </c>
-      <c r="B18" s="11">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.1285</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.9627</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>7500000</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.56630000000000003</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>46214400</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>8000000</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.8538</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.5706</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>100400000</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.79630000000000001</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.56459999999999999</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>8500000</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>9500000</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.8569</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.5776</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.9748</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>10500000</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.8589</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="D24" s="10">
         <v>0.97540000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>165280000</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="E24" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>11000000</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.9788</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>11500000</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>12500000</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>13000000</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>13500000</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.59867000000000004</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>14000000</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <f>A31+$A$4</f>
+        <v>14500000</v>
+      </c>
+      <c r="B32" s="10">
         <v>0.86719999999999997</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C32" s="10">
         <v>0.60270000000000001</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D32" s="10">
         <v>0.9879</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="13" t="s">
+      <c r="E32" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>15500000</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>16000000</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.9879</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="13"/>
+      <c r="G39" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="K24" s="13" t="s">
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="L39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="E40" s="2"/>
+      <c r="G40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="F26" s="1">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="G41" s="1">
         <v>979200</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I41" s="10">
         <v>0</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="F27" s="1">
+      <c r="L41" s="1"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="G42" s="1">
         <v>5196800</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
+      <c r="H42" s="10"/>
+      <c r="I42" s="10">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="F28" s="1">
+      <c r="J42" s="10"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="G43" s="1">
         <v>10985600</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10">
+      <c r="H43" s="10"/>
+      <c r="I43" s="10">
         <v>0.1081</v>
       </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="F29" s="1">
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="G44" s="1">
         <v>14121600</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10">
         <v>0.12620000000000001</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="K29" s="1">
+      <c r="J44" s="10"/>
+      <c r="L44" s="1">
         <v>14051200</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M44" s="10">
         <v>0.18820000000000001</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N44" s="10">
         <v>6.93E-2</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O44" s="10">
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="8">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="G45" s="8">
         <v>20422400</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10">
         <v>0.11650000000000001</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="F31" s="1">
+      <c r="J45" s="10"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="G46" s="1">
         <v>25676800</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10">
         <v>0.1095</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="F32" s="9">
+      <c r="J46" s="10"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="G47" s="9">
         <v>30931200</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="F34" s="9">
+      <c r="J47" s="10"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="G49" s="9">
         <v>40284800</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11">
         <v>9.4899999999999998E-2</v>
       </c>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="J50" s="11"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>56640000</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B51" s="10">
         <v>0.60870000000000002</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C51" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D51" s="10">
         <v>0.9274</v>
       </c>
-      <c r="F36" s="9">
+      <c r="E51" s="10"/>
+      <c r="G51" s="9">
         <v>50035200</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H51" s="11">
         <v>0.6109</v>
       </c>
-      <c r="H36" s="11">
+      <c r="I51" s="11">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="I36" s="11">
+      <c r="J51" s="11">
         <v>0.92030000000000001</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L51" s="1">
         <v>50035200</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M51" s="10">
         <v>0.1885</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N51" s="10">
         <v>6.93E-2</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O51" s="10">
         <v>0.69159999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>100035200</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B52" s="10">
         <v>0.55969999999999998</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C52" s="10">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D52" s="10">
         <v>0.88849999999999996</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
+      <c r="E52" s="10"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="S1:V1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>